--- a/exp4_Interp/result.xlsx
+++ b/exp4_Interp/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polly/Desktop/大二下/Engineering_Computation/HW/engineering-computation-practice/exp4_Interp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B0B84-39DB-1441-BBC5-D26983CDB5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C284C8-AB19-B546-9C55-26D5CFDBB37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A92244BC-B061-E744-B1F7-E484FABC0F79}"/>
+    <workbookView minimized="1" xWindow="1000" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{A92244BC-B061-E744-B1F7-E484FABC0F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,12 +444,15 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="12" style="1"/>
+    <col min="1" max="7" width="12" style="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
